--- a/src/test/resources/RegistrationTestData.xlsx
+++ b/src/test/resources/RegistrationTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{89DC104E-E79B-4815-BB80-10F48FD63566}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{5BC2A04F-25B6-44E1-BCA2-3E95593282B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="5115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -83,9 +83,6 @@
     <t>hellofresh</t>
   </si>
   <si>
-    <t>sadasd</t>
-  </si>
-  <si>
     <t>asdafwxzda</t>
   </si>
   <si>
@@ -120,6 +117,18 @@
   </si>
   <si>
     <t>BirthYear</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>casaasd, Ex45n, hellofresh</t>
+  </si>
+  <si>
+    <t>1234567845</t>
   </si>
 </sst>
 </file>
@@ -155,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +475,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -480,13 +490,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -521,7 +531,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -536,40 +546,40 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="N2">
-        <v>12345</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2">
-        <v>1234567890</v>
-      </c>
-      <c r="Q2">
-        <v>1234567890</v>
+      <c r="P2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="R2" t="s">
         <v>13</v>
